--- a/session1.xlsx
+++ b/session1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\venv\venv\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>date</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>TRF from Kiekie to Bimbo Ademoye</t>
+  </si>
+  <si>
+    <t>sessionref</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1175,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/session1.xlsx
+++ b/session1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2350" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="session1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>date</t>
   </si>
@@ -45,9 +45,6 @@
     <t>resp</t>
   </si>
   <si>
-    <t>15-01-2025</t>
-  </si>
-  <si>
     <t>202501151030229374618529374610</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>failed</t>
   </si>
   <si>
-    <t>19-07-2025</t>
-  </si>
-  <si>
     <t>202507191201558462910374856291</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Payment from Mary Anne to Tunde Philips</t>
   </si>
   <si>
-    <t>25-06-2025</t>
-  </si>
-  <si>
     <t>202506251530491029384756102938</t>
   </si>
   <si>
@@ -105,27 +96,18 @@
     <t>GTB transfer from Emeka Okafor to Funke Ade</t>
   </si>
   <si>
-    <t>21-12-2025</t>
-  </si>
-  <si>
     <t>202512211750051928374650192837</t>
   </si>
   <si>
     <t>Airtime purchase for 08012345678</t>
   </si>
   <si>
-    <t>30-03-2025</t>
-  </si>
-  <si>
     <t>202503301805338462910374856291</t>
   </si>
   <si>
     <t>TRF FR Burna Boy TO Omah Lay REF 846291</t>
   </si>
   <si>
-    <t>14-08-2025</t>
-  </si>
-  <si>
     <t>202508141915182837465019283746</t>
   </si>
   <si>
@@ -138,18 +120,12 @@
     <t>USSD TRF to Blessing Chioma ref: School Fees</t>
   </si>
   <si>
-    <t>18-10-2025</t>
-  </si>
-  <si>
     <t>202510182135441029384756102938</t>
   </si>
   <si>
     <t>WEB Payment to Jumia Nigeria for Order #J4857</t>
   </si>
   <si>
-    <t>27-01-2025</t>
-  </si>
-  <si>
     <t>202501272240128573625149857362</t>
   </si>
   <si>
@@ -162,9 +138,6 @@
     <t>Mobile top-up from Self to 09087654321</t>
   </si>
   <si>
-    <t>23-09-2025</t>
-  </si>
-  <si>
     <t>202509230010018462910374856291</t>
   </si>
   <si>
@@ -177,9 +150,6 @@
     <t>TRF FR Wizkid Ayo TO Tiwa Savage REF 283746</t>
   </si>
   <si>
-    <t>20-07-2025</t>
-  </si>
-  <si>
     <t>202507200230309374618529374618</t>
   </si>
   <si>
@@ -192,18 +162,12 @@
     <t>Payment to DSTV for subscription renewal</t>
   </si>
   <si>
-    <t>13-04-2025</t>
-  </si>
-  <si>
     <t>202504130450198573625149857362</t>
   </si>
   <si>
     <t>UBA Mobile TRF to Chioma Nwosu</t>
   </si>
   <si>
-    <t>26-08-2025</t>
-  </si>
-  <si>
     <t>202508260505051928374650192837</t>
   </si>
   <si>
@@ -216,9 +180,6 @@
     <t>TRF FR Tems Baby TO Wizkid Ayo REF 846291</t>
   </si>
   <si>
-    <t>22-06-2025</t>
-  </si>
-  <si>
     <t>202506220720202837465019283746</t>
   </si>
   <si>
@@ -231,9 +192,6 @@
     <t>Cash transfer to Musa Ibrahim</t>
   </si>
   <si>
-    <t>17-01-2025</t>
-  </si>
-  <si>
     <t>202501170945451029384756102938</t>
   </si>
   <si>
@@ -246,18 +204,12 @@
     <t>TRF/USSD/Omah Lay to Self</t>
   </si>
   <si>
-    <t>15-11-2025</t>
-  </si>
-  <si>
     <t>202511151105051928374650192837</t>
   </si>
   <si>
     <t>Donation to Charity Foundation via Web</t>
   </si>
   <si>
-    <t>28-03-2025</t>
-  </si>
-  <si>
     <t>202503281210108462910374856291</t>
   </si>
   <si>
@@ -270,9 +222,6 @@
     <t>TRF to Olamide Baddo for services rendered</t>
   </si>
   <si>
-    <t>24-02-2025</t>
-  </si>
-  <si>
     <t>202502241430309374618529374618</t>
   </si>
   <si>
@@ -285,9 +234,6 @@
     <t>Transfer to Sisi Yemmie for catering</t>
   </si>
   <si>
-    <t>19-12-2025</t>
-  </si>
-  <si>
     <t>202512191650508573625149857362</t>
   </si>
   <si>
@@ -300,18 +246,12 @@
     <t>Bet9ja wallet funding</t>
   </si>
   <si>
-    <t>14-07-2025</t>
-  </si>
-  <si>
     <t>202507141811118462910374856291</t>
   </si>
   <si>
     <t>Transfer from Self to Broda Shaggi</t>
   </si>
   <si>
-    <t>27-11-2025</t>
-  </si>
-  <si>
     <t>202511271922222837465019283746</t>
   </si>
   <si>
@@ -324,9 +264,6 @@
     <t>Wema Bank transfer from Macaroni Debo</t>
   </si>
   <si>
-    <t>24-08-2025</t>
-  </si>
-  <si>
     <t>202508242144441029384756102938</t>
   </si>
   <si>
@@ -339,9 +276,6 @@
     <t>TRF from Lasisi Elenu to Woli Arole</t>
   </si>
   <si>
-    <t>21-05-2025</t>
-  </si>
-  <si>
     <t>202505212305051928374650192837</t>
   </si>
   <si>
@@ -352,9 +286,6 @@
   </si>
   <si>
     <t>Transfer to Taaooma for skit production</t>
-  </si>
-  <si>
-    <t>16-03-2025</t>
   </si>
   <si>
     <t>202503160125252837465019283746</t>
@@ -847,10 +778,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1175,7 +1105,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1222,16 +1152,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>2450.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>3100000001</v>
@@ -1243,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1251,16 +1181,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C3">
         <v>150.75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>3100000002</v>
@@ -1272,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1280,16 +1210,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>5500</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>3100000003</v>
@@ -1301,24 +1231,24 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>45727</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>890.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>3100000004</v>
@@ -1330,24 +1260,24 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>45993</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>320</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3100000005</v>
@@ -1359,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1367,16 +1297,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>12000.8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3100000006</v>
@@ -1388,24 +1318,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>45878</v>
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>430.1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3100000007</v>
@@ -1417,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1425,16 +1355,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>99.99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3100000008</v>
@@ -1446,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1454,16 +1384,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>650</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>3100000009</v>
@@ -1475,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1483,16 +1413,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>18000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>3100000010</v>
@@ -1504,24 +1434,24 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>45782</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>25.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>3100000011</v>
@@ -1533,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1541,16 +1471,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>9850.25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>3100000012</v>
@@ -1562,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1570,16 +1500,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>750</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>3100000013</v>
@@ -1591,24 +1521,24 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>45967</v>
+      <c r="A15" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>3000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>3100000014</v>
@@ -1620,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1628,16 +1558,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>3100000015</v>
@@ -1649,24 +1579,24 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>45841</v>
+      <c r="A17" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>45000.9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>3100000016</v>
@@ -1678,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1686,16 +1616,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>880</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>3100000017</v>
@@ -1707,24 +1637,24 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>45669</v>
+      <c r="A19" t="s">
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>1250.7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>3100000018</v>
@@ -1736,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1744,16 +1674,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>500</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>3100000019</v>
@@ -1765,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1773,16 +1703,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>6200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>3100000020</v>
@@ -1794,24 +1724,24 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>45902</v>
+      <c r="A22" t="s">
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>2200</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>3100000021</v>
@@ -1823,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1831,16 +1761,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>3100000022</v>
@@ -1852,24 +1782,24 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>45757</v>
+      <c r="A24" t="s">
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>300</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>3100000023</v>
@@ -1881,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1889,16 +1819,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>1999.99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>3100000024</v>
@@ -1910,24 +1840,24 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>45695</v>
+      <c r="A26" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>480.6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>3100000025</v>
@@ -1939,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1947,16 +1877,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>3100000026</v>
@@ -1968,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1976,16 +1906,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>10500</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>3100000027</v>
@@ -1997,24 +1927,24 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>45939</v>
+      <c r="A29" t="s">
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>680</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>3100000028</v>
@@ -2026,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2034,16 +1964,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>950</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>3100000029</v>
@@ -2055,24 +1985,24 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>45816</v>
+      <c r="A31" t="s">
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>2000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>3100000030</v>
@@ -2084,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2092,16 +2022,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>350</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E32">
         <v>3100000031</v>
@@ -2113,24 +2043,24 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>45661</v>
+      <c r="A33" t="s">
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>3100000032</v>
@@ -2142,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2150,16 +2080,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>8000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <v>3100000033</v>
@@ -2171,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2179,16 +2109,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>450</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E35">
         <v>3100000034</v>
@@ -2200,24 +2130,24 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>45964</v>
+      <c r="A36" t="s">
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>5000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>3100000035</v>
@@ -2229,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2237,16 +2167,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>720</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>3100000036</v>
@@ -2258,24 +2188,24 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>45870</v>
+      <c r="A38" t="s">
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>1300</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <v>3100000037</v>
@@ -2287,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2295,16 +2225,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E39">
         <v>3100000038</v>
@@ -2316,24 +2246,24 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>45726</v>
+      <c r="A40" t="s">
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>600</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>3100000039</v>
@@ -2345,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2353,16 +2283,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>1800</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>3100000040</v>
@@ -2374,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I41">
         <v>1</v>
